--- a/CRM.UI/DataBaseArchi.xlsx
+++ b/CRM.UI/DataBaseArchi.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\For Development\CRM\CRM.UI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50ACA7B5-14B7-487D-AEDD-4BC4C57A4949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9D6F9B1-55D4-4797-AAB9-7F1157A370D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
+    <sheet name="Notes" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>UserType</t>
   </si>
@@ -120,13 +121,16 @@
   </si>
   <si>
     <t>Status</t>
+  </si>
+  <si>
+    <t>https://github.com/aspnetcorehero/ToastNotification/tree/master</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,6 +142,14 @@
       <b/>
       <sz val="14"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -166,16 +178,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -497,27 +512,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" customWidth="1"/>
-    <col min="5" max="5" width="13.77734375" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" customWidth="1"/>
-    <col min="9" max="9" width="13.77734375" customWidth="1"/>
-    <col min="10" max="10" width="9.88671875" customWidth="1"/>
-    <col min="11" max="11" width="10.33203125" customWidth="1"/>
-    <col min="12" max="12" width="13.77734375" customWidth="1"/>
-    <col min="13" max="13" width="10.44140625" customWidth="1"/>
-    <col min="14" max="14" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1"/>
+    <col min="10" max="10" width="9.85546875" customWidth="1"/>
+    <col min="11" max="11" width="10.28515625" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -536,7 +551,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -577,72 +592,72 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -658,4 +673,27 @@
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F237919-652A-483A-881C-1B98151A0900}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{9AE8AEF6-B6C9-4940-A09C-A5AE84828597}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>